--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3914390.832595</v>
+        <v>3912503.251078599</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>265.1806127579638</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>144.54503968478</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.220846587375998</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>146.8731963782481</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>190.6440902478826</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>9.461970681989468</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>110.7937263796633</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>149.1370377385929</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>60.92600812502346</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>5.107731335945374</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>35.2989340963246</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>179.9063415975607</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>101.2898147863551</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>112.2536425510785</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>204.1291651532048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065121</v>
+        <v>216.247910245828</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>75.06705067831057</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.7438101404419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.67402846882991</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>28.78373385838177</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235377</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,10 +4358,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
@@ -4370,10 +4370,10 @@
         <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1394.624369323446</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.624369323446</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>190.2718927217162</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>190.2718927217162</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>190.2718927217162</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.232431292459</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C5" t="n">
-        <v>1744.232431292459</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2328.401815203218</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y5" t="n">
-        <v>2130.832271356581</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>709.1532345052519</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.092286283102</v>
+        <v>340.1907175648402</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.826587676352</v>
+        <v>340.1907175648402</v>
       </c>
       <c r="E8" t="n">
-        <v>769.0383350781076</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>358.0524302885</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>1095.753074569374</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,22 +5051,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1493.756945976139</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1269.971530765645</v>
+        <v>1152.265668049094</v>
       </c>
       <c r="U13" t="n">
-        <v>980.8428919792032</v>
+        <v>1152.265668049094</v>
       </c>
       <c r="V13" t="n">
-        <v>726.1584037733163</v>
+        <v>1152.265668049094</v>
       </c>
       <c r="W13" t="n">
-        <v>436.7412337363557</v>
+        <v>862.8484980121334</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>634.8589471141161</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>534.542980734167</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2379.156885434022</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1206.117589748454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>982.3321745379599</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U16" t="n">
-        <v>982.3321745379599</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V16" t="n">
-        <v>727.647686332073</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>318.009670603816</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.542980734167</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141285</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975556</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>210.604609188648</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765181</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706312</v>
+        <v>620.242624916905</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706312</v>
+        <v>620.242624916905</v>
       </c>
       <c r="X19" t="n">
-        <v>303.4081673726139</v>
+        <v>392.2530740188877</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.2530740188877</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2205.048458376741</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2410.070939158951</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5914,46 +5914,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>791.435389115469</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>536.7509009095821</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765183</v>
+        <v>822.967214533373</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765183</v>
+        <v>568.2827263274861</v>
       </c>
       <c r="W25" t="n">
-        <v>496.6650364395577</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X25" t="n">
-        <v>268.6754855415404</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6382,7 +6382,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,22 +6409,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028587</v>
@@ -6443,52 +6443,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.5472734739665</v>
+        <v>582.6866369260349</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739665</v>
+        <v>469.5113192794987</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430015</v>
+        <v>375.1555451485337</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>283.0033168475114</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>902.6804289818932</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365247</v>
+        <v>873.6059503370632</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030876</v>
+        <v>708.5742364749038</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,34 +6683,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6865,16 +6865,16 @@
         <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,19 +6926,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103132</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860497</v>
@@ -7111,7 +7111,7 @@
         <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,19 +7160,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649692</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7789,7 +7789,7 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,31 +7801,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010316</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783519</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>199.7396287231143</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229594</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.872441903932</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714842</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>285.1031356539339</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>28.12263706263002</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>202.5230052237944</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>192.8130786476579</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>186.2486269620646</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.01446838604284</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>185.2331835502359</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>54.99317854754931</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.45548819889004</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518771</v>
+        <v>5.299650812561276</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.84084321165287</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338582</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.9546950845503</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>141.7226649020983</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652326.8865326514</v>
+        <v>652326.8865326515</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678385.4645851275</v>
+        <v>678385.4645851274</v>
       </c>
     </row>
     <row r="12">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
         <v>752620.9540887491</v>
@@ -26344,16 +26344,16 @@
         <v>759463.6371244611</v>
       </c>
       <c r="M2" t="n">
+        <v>759463.6371244618</v>
+      </c>
+      <c r="N2" t="n">
         <v>759463.6371244611</v>
       </c>
-      <c r="N2" t="n">
-        <v>759463.637124461</v>
-      </c>
       <c r="O2" t="n">
-        <v>759463.637124461</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.637124461</v>
+        <v>759463.6371244622</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007547</v>
+        <v>7916.731656007423</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007508</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007459</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732798</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61280.36886941244</v>
+        <v>-61280.36886941243</v>
       </c>
       <c r="C6" t="n">
-        <v>528687.510345132</v>
+        <v>528687.5103451322</v>
       </c>
       <c r="D6" t="n">
-        <v>528687.510345132</v>
+        <v>528687.5103451322</v>
       </c>
       <c r="E6" t="n">
-        <v>98339.66643314132</v>
+        <v>98242.20730716889</v>
       </c>
       <c r="F6" t="n">
-        <v>623499.7029100376</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="G6" t="n">
-        <v>623499.7029100374</v>
+        <v>623402.2437840655</v>
       </c>
       <c r="H6" t="n">
-        <v>623499.7029100369</v>
+        <v>623402.2437840649</v>
       </c>
       <c r="I6" t="n">
-        <v>623499.7029100371</v>
+        <v>623402.243784065</v>
       </c>
       <c r="J6" t="n">
-        <v>447076.483717444</v>
+        <v>446979.0245914722</v>
       </c>
       <c r="K6" t="n">
-        <v>585748.7860854766</v>
+        <v>585730.2923475424</v>
       </c>
       <c r="L6" t="n">
-        <v>621070.1056062409</v>
+        <v>621070.1056062408</v>
       </c>
       <c r="M6" t="n">
-        <v>496611.9971732706</v>
+        <v>496611.9971732711</v>
       </c>
       <c r="N6" t="n">
-        <v>631413.0124071076</v>
+        <v>631413.0124071077</v>
       </c>
       <c r="O6" t="n">
-        <v>631413.0124071076</v>
+        <v>631413.0124071087</v>
       </c>
       <c r="P6" t="n">
-        <v>587250.4071042619</v>
+        <v>587250.4071042631</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>104.5504879205052</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>80.49006577330425</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0610276546017</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>207.8098452424349</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>25.80423010977515</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>277.0610276546016</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>271.1366436925985</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>264.6471322822021</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>191.2116351988045</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262123</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>510.1640057735807</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734255</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>246.8854746890061</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>618.2977090519466</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>310.4863393037382</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>483.6693559063411</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>535.7175786218072</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37321,7 +37321,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,10 +37397,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,13 +37631,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>471.2493968713491</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>679.5137650998395</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
